--- a/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.08282393053084</v>
+        <v>90.10180272852708</v>
       </c>
       <c r="D2" t="n">
-        <v>1.143431284214786</v>
+        <v>0.8374307317590539</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.16201262703899</v>
+        <v>88.84555633912622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9335192407084371</v>
+        <v>1.004311298140071</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.23959730116161</v>
+        <v>87.8696022156921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9562156828668668</v>
+        <v>1.19730157483673</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.94100266491358</v>
+        <v>86.92751242560421</v>
       </c>
       <c r="D5" t="n">
-        <v>1.022564952079522</v>
+        <v>1.120876034626181</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.1091893345133</v>
+        <v>85.86464845821963</v>
       </c>
       <c r="D6" t="n">
-        <v>1.166941551155304</v>
+        <v>1.101290070649679</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.96482377978498</v>
+        <v>84.94299640854881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8639637524553635</v>
+        <v>1.176088851909437</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.02775878725224</v>
+        <v>83.90071854427842</v>
       </c>
       <c r="D8" t="n">
-        <v>1.255778850068477</v>
+        <v>1.058920850739369</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.97351414709567</v>
+        <v>83.05301668478762</v>
       </c>
       <c r="D9" t="n">
-        <v>1.18782065328465</v>
+        <v>1.210818918325212</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.87738348602362</v>
+        <v>81.99920115524746</v>
       </c>
       <c r="D10" t="n">
-        <v>1.221560482088141</v>
+        <v>1.279813418270756</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.69176483667535</v>
+        <v>80.79637806701912</v>
       </c>
       <c r="D11" t="n">
-        <v>1.346952185680685</v>
+        <v>1.35732358942732</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.87745492821378</v>
+        <v>79.94157411525002</v>
       </c>
       <c r="D12" t="n">
-        <v>1.237250775308812</v>
+        <v>1.187872300390197</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.86882224747126</v>
+        <v>78.99883487049448</v>
       </c>
       <c r="D13" t="n">
-        <v>1.210731052615185</v>
+        <v>1.22094972342879</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.84824729851849</v>
+        <v>77.89005183050905</v>
       </c>
       <c r="D14" t="n">
-        <v>1.420539672478003</v>
+        <v>1.150999708128708</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.87785378167314</v>
+        <v>77.02801631077736</v>
       </c>
       <c r="D15" t="n">
-        <v>1.263755767790991</v>
+        <v>1.152924109824692</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.99114948975263</v>
+        <v>75.89291755268061</v>
       </c>
       <c r="D16" t="n">
-        <v>1.260026869157817</v>
+        <v>1.373656136395114</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.87637990449761</v>
+        <v>75.10739734272703</v>
       </c>
       <c r="D17" t="n">
-        <v>1.49182359619419</v>
+        <v>1.291266870905119</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.73654648290136</v>
+        <v>73.99801015500721</v>
       </c>
       <c r="D18" t="n">
-        <v>1.476822352715722</v>
+        <v>1.504046876746785</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.83731475144839</v>
+        <v>72.98717474443615</v>
       </c>
       <c r="D19" t="n">
-        <v>1.451096473565194</v>
+        <v>1.341126225780811</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.15842556793967</v>
+        <v>72.16984863854059</v>
       </c>
       <c r="D20" t="n">
-        <v>1.337875602940035</v>
+        <v>1.274429414857473</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.1732193623903</v>
+        <v>70.81590989528921</v>
       </c>
       <c r="D21" t="n">
-        <v>1.539793548709117</v>
+        <v>1.500963506129001</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.82777212117107</v>
+        <v>69.9765733444424</v>
       </c>
       <c r="D22" t="n">
-        <v>1.405110696330322</v>
+        <v>1.512158053488953</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.97633853973316</v>
+        <v>69.06309229156936</v>
       </c>
       <c r="D23" t="n">
-        <v>1.268880364343941</v>
+        <v>1.593210730049955</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.19579104899779</v>
+        <v>68.22789030404607</v>
       </c>
       <c r="D24" t="n">
-        <v>1.413532913221764</v>
+        <v>1.61310311823165</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96160199421963</v>
+        <v>67.33877723291666</v>
       </c>
       <c r="D25" t="n">
-        <v>1.565371079244845</v>
+        <v>1.412865291561135</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.83067905208873</v>
+        <v>65.99759363069242</v>
       </c>
       <c r="D26" t="n">
-        <v>1.48951244770513</v>
+        <v>1.622022813283303</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.43975272544773</v>
+        <v>65.0256456152995</v>
       </c>
       <c r="D27" t="n">
-        <v>1.501638807942667</v>
+        <v>1.508839498990265</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81377781946316</v>
+        <v>63.95561010556162</v>
       </c>
       <c r="D28" t="n">
-        <v>1.487298522686219</v>
+        <v>1.600661052737161</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.82841593080682</v>
+        <v>62.94040064840667</v>
       </c>
       <c r="D29" t="n">
-        <v>2.010356482538917</v>
+        <v>1.614352097924489</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.8448713397122</v>
+        <v>62.11171202685641</v>
       </c>
       <c r="D30" t="n">
-        <v>1.60394897488327</v>
+        <v>1.475694047946976</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.1071347944787</v>
+        <v>60.99411724323</v>
       </c>
       <c r="D31" t="n">
-        <v>1.676539084375133</v>
+        <v>1.436729702106188</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.97221676798981</v>
+        <v>60.06111184071278</v>
       </c>
       <c r="D32" t="n">
-        <v>1.547608933909778</v>
+        <v>1.836928061887876</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.05459900071298</v>
+        <v>58.7124962217711</v>
       </c>
       <c r="D33" t="n">
-        <v>1.628218436830014</v>
+        <v>1.753691760850127</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.11281209204909</v>
+        <v>58.04504605147304</v>
       </c>
       <c r="D34" t="n">
-        <v>1.652653127415042</v>
+        <v>1.765589648647212</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.10618515752206</v>
+        <v>56.98278153128815</v>
       </c>
       <c r="D35" t="n">
-        <v>1.795268701888406</v>
+        <v>1.943047626228171</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.7927432260964</v>
+        <v>55.62848155503134</v>
       </c>
       <c r="D36" t="n">
-        <v>1.776242727549249</v>
+        <v>1.904837558308008</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.85326487845471</v>
+        <v>54.96589191178803</v>
       </c>
       <c r="D37" t="n">
-        <v>1.802762200721964</v>
+        <v>1.829961825016533</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.6011761221041</v>
+        <v>53.87993678990929</v>
       </c>
       <c r="D38" t="n">
-        <v>1.997406199668587</v>
+        <v>1.701833718469646</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.51656452772168</v>
+        <v>52.8532703891843</v>
       </c>
       <c r="D39" t="n">
-        <v>1.885170789732679</v>
+        <v>1.916496014161865</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.10357606282921</v>
+        <v>51.72740341250201</v>
       </c>
       <c r="D40" t="n">
-        <v>1.884540654352242</v>
+        <v>2.177643519050653</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.98490813889929</v>
+        <v>50.93221574309471</v>
       </c>
       <c r="D41" t="n">
-        <v>1.827471155411167</v>
+        <v>1.83277282863649</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.81416493392889</v>
+        <v>49.44382154401134</v>
       </c>
       <c r="D42" t="n">
-        <v>1.982561461853659</v>
+        <v>1.861738740021472</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.92933516335543</v>
+        <v>49.35407584658576</v>
       </c>
       <c r="D43" t="n">
-        <v>1.827990448648203</v>
+        <v>1.842865878388054</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.80142702486524</v>
+        <v>47.71826889636665</v>
       </c>
       <c r="D44" t="n">
-        <v>1.93018860716941</v>
+        <v>2.14151305505296</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.01754633499975</v>
+        <v>47.02604234886847</v>
       </c>
       <c r="D45" t="n">
-        <v>2.057825849742041</v>
+        <v>1.937812069685582</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.94953149859505</v>
+        <v>45.66097808928601</v>
       </c>
       <c r="D46" t="n">
-        <v>2.109018925982701</v>
+        <v>1.956922958587128</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.65526828071056</v>
+        <v>44.97160925489616</v>
       </c>
       <c r="D47" t="n">
-        <v>1.886783230414286</v>
+        <v>2.173319768197217</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.23782746978286</v>
+        <v>43.86508134365342</v>
       </c>
       <c r="D48" t="n">
-        <v>2.05016457993018</v>
+        <v>1.803880971820793</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.0084203927516</v>
+        <v>43.1283692914463</v>
       </c>
       <c r="D49" t="n">
-        <v>1.948017699404045</v>
+        <v>2.056950464072445</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.09251575927496</v>
+        <v>41.68217766126684</v>
       </c>
       <c r="D50" t="n">
-        <v>2.017516668606963</v>
+        <v>2.254340102554445</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.14310244303481</v>
+        <v>41.01883743872677</v>
       </c>
       <c r="D51" t="n">
-        <v>2.328600591060007</v>
+        <v>2.185174461350579</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.18549366939212</v>
+        <v>39.77826972692656</v>
       </c>
       <c r="D52" t="n">
-        <v>2.014318922973342</v>
+        <v>2.010740947049531</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.72442687892097</v>
+        <v>39.24173146739435</v>
       </c>
       <c r="D53" t="n">
-        <v>2.214067303779524</v>
+        <v>2.320188803489055</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.13419500677678</v>
+        <v>38.0927187980905</v>
       </c>
       <c r="D54" t="n">
-        <v>2.110157895342293</v>
+        <v>1.995787866639243</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.57792478684559</v>
+        <v>37.12408338410392</v>
       </c>
       <c r="D55" t="n">
-        <v>1.982647789248002</v>
+        <v>2.080761660815074</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.00966803927084</v>
+        <v>36.13163418226819</v>
       </c>
       <c r="D56" t="n">
-        <v>2.418784521501605</v>
+        <v>2.124982120164155</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.03103841544127</v>
+        <v>34.75573711585685</v>
       </c>
       <c r="D57" t="n">
-        <v>2.03253297719343</v>
+        <v>2.448282802051533</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.02502792343166</v>
+        <v>33.78663154077513</v>
       </c>
       <c r="D58" t="n">
-        <v>2.003089026176673</v>
+        <v>2.135309111853125</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.65226745965971</v>
+        <v>33.03799322426513</v>
       </c>
       <c r="D59" t="n">
-        <v>2.213129654255946</v>
+        <v>2.431790142636811</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.95554849659765</v>
+        <v>32.10030454483041</v>
       </c>
       <c r="D60" t="n">
-        <v>1.999764831591028</v>
+        <v>2.4136869408926</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.12624902064299</v>
+        <v>31.45043436207998</v>
       </c>
       <c r="D61" t="n">
-        <v>2.254161885090136</v>
+        <v>2.304865225191738</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.87732793954017</v>
+        <v>30.02783676304464</v>
       </c>
       <c r="D62" t="n">
-        <v>2.328228649777225</v>
+        <v>2.295713117613434</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.08297479595</v>
+        <v>28.87127780000359</v>
       </c>
       <c r="D63" t="n">
-        <v>2.471444969833345</v>
+        <v>2.234025901158755</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.19662020889631</v>
+        <v>28.5683183660777</v>
       </c>
       <c r="D64" t="n">
-        <v>1.946021479127551</v>
+        <v>2.32665518482907</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.07065825232878</v>
+        <v>26.92976715718193</v>
       </c>
       <c r="D65" t="n">
-        <v>2.40179377131192</v>
+        <v>2.030131577400244</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.76063155547582</v>
+        <v>25.87475485346841</v>
       </c>
       <c r="D66" t="n">
-        <v>2.486092951402694</v>
+        <v>2.630454974859033</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.86355537184483</v>
+        <v>24.67564448680936</v>
       </c>
       <c r="D67" t="n">
-        <v>2.68554479891919</v>
+        <v>2.855632037353822</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.1040358220641</v>
+        <v>24.22314139474597</v>
       </c>
       <c r="D68" t="n">
-        <v>2.365490502891333</v>
+        <v>2.350013447297869</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.80188282918367</v>
+        <v>23.31966898035339</v>
       </c>
       <c r="D69" t="n">
-        <v>2.672704625933519</v>
+        <v>2.65912798515513</v>
       </c>
     </row>
   </sheetData>
